--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,59 +74,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P2102100001</t>
-  </si>
-  <si>
-    <t>นายเรืองฤทธิ์ ชาติมนตรี</t>
-  </si>
-  <si>
-    <t>1 ม. 5 หัวฝาย ต.หินเหล็กไฟ อ.คูเมือง จ.บุรีรัมย์</t>
-  </si>
-  <si>
-    <t>085-1004450</t>
-  </si>
-  <si>
-    <t>P2102100002</t>
-  </si>
-  <si>
-    <t>สุภรรณี คลุ้มกระโทก</t>
-  </si>
-  <si>
-    <t>333 ม.16 ต.ประทาย อ.ประทาย จ.นครราชสีมา</t>
-  </si>
-  <si>
-    <t>091-8308064</t>
-  </si>
-  <si>
-    <t>P2102100003</t>
-  </si>
-  <si>
-    <t>สุพิชญ์รดา คำปุทา</t>
-  </si>
-  <si>
-    <t>สำนักวิจัยและพัฒนาการเกษตรเขตที่ 3 
-เลขที่ 180 หมู่ 27 ต.ศิลา  อ.เมือง จ.ขอนแก่น</t>
-  </si>
-  <si>
-    <t>088 7998542</t>
-  </si>
-  <si>
-    <t>P2102100004</t>
-  </si>
-  <si>
-    <t>ชญานันท์ พิมพ์วันวงศ์</t>
-  </si>
-  <si>
-    <t>84 กู่ช้าง - กู่ม้า ต.ในเมือง อ.เมือง จ.ลำพูน</t>
-  </si>
-  <si>
-    <t>088-9479895</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 083-2325974</t>
-  </si>
-  <si>
-    <t>P00001</t>
+    <t>P1210300008</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร4 พิกุล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54/325 90/16 ( หลังตลาดเทวราช )    บางบ่อ บ้านระกาศ สมุทรปราการ 10560   </t>
+  </si>
+  <si>
+    <t>P1210300017</t>
+  </si>
+  <si>
+    <t>ไม่ได้ระบุที่อยู่ กรุณาตรวจสอบ</t>
   </si>
 </sst>
 </file>
@@ -477,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -490,7 +450,7 @@
     <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="57.700195" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="85.979004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
@@ -578,15 +538,9 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>31190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -603,23 +557,15 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>30180</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -630,109 +576,6 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>51000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>51000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,19 +74,31 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P1210300008</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร4 พิกุล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54/325 90/16 ( หลังตลาดเทวราช )    บางบ่อ บ้านระกาศ สมุทรปราการ 10560   </t>
-  </si>
-  <si>
-    <t>P1210300017</t>
-  </si>
-  <si>
-    <t>ไม่ได้ระบุที่อยู่ กรุณาตรวจสอบ</t>
+    <t>P1210400002</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร1 พิกุล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54/325 90/16 ( หลังตลาดเทวราช )       10560   </t>
+  </si>
+  <si>
+    <t>0860000001</t>
+  </si>
+  <si>
+    <t>P1210400003</t>
+  </si>
+  <si>
+    <t>ชฎาพร1 พิกุล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111     บางบ่อ บ้านระกาศ อ่างทอง 10560   </t>
+  </si>
+  <si>
+    <t>wwwwwwwww</t>
+  </si>
+  <si>
+    <t>P1210400004</t>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -450,7 +462,7 @@
     <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="85.979004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="55.272217" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
@@ -539,7 +551,9 @@
         <v>21</v>
       </c>
       <c r="G2"/>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -557,14 +571,18 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3"/>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -576,6 +594,33 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,31 +74,13 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P1210400002</t>
+    <t>P200001</t>
   </si>
   <si>
     <t>คุณชฎาพร1 พิกุล</t>
   </si>
   <si>
-    <t xml:space="preserve">54/325 90/16 ( หลังตลาดเทวราช )       10560   </t>
-  </si>
-  <si>
-    <t>0860000001</t>
-  </si>
-  <si>
-    <t>P1210400003</t>
-  </si>
-  <si>
-    <t>ชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111     บางบ่อ บ้านระกาศ อ่างทอง 10560   </t>
-  </si>
-  <si>
-    <t>wwwwwwwww</t>
-  </si>
-  <si>
-    <t>P1210400004</t>
+    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
   </si>
 </sst>
 </file>
@@ -449,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -462,7 +444,7 @@
     <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="55.272217" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="70.697021" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
@@ -551,9 +533,7 @@
         <v>21</v>
       </c>
       <c r="G2"/>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -565,62 +545,6 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,13 +74,13 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P200001</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
+    <t>O121090300001</t>
+  </si>
+  <si>
+    <t>กกกกก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ต.  อ.  จ.  รหัส ปณ. </t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -439,25 +439,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="70.697021" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,13 +74,13 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121090300001</t>
-  </si>
-  <si>
-    <t>กกกกก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ต.  อ.  จ.  รหัส ปณ. </t>
+    <t>P200001</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร1 พิกุล</t>
+  </si>
+  <si>
+    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -439,25 +439,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="70.697021" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,13 +74,28 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P200001</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>คุณชญานันท์ พิมพ์วันวงศ์</t>
+  </si>
+  <si>
+    <t>84 กู่ช้าง กู่ม้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0889479895 </t>
+  </si>
+  <si>
+    <t>O121092700405</t>
+  </si>
+  <si>
+    <t>คุณรัตนกร วณิชย์กุล</t>
+  </si>
+  <si>
+    <t>18/6 สุขุมวิท 23 ซอยประสานมิตร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0954314475 </t>
   </si>
 </sst>
 </file>
@@ -427,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -439,25 +454,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="70.697021" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -532,8 +547,12 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="G2">
+        <v>51000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -545,6 +564,37 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
+    <t>aaaaaaaaaa</t>
+  </si>
+  <si>
     <t>P100001</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">0889479895 </t>
+  </si>
+  <si>
+    <t>bbbbbbbbb</t>
   </si>
   <si>
     <t>O121092700405</t>
@@ -535,23 +541,25 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>51000</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -566,23 +574,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>10110</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,34 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>aaaaaaaaaa</t>
-  </si>
-  <si>
     <t>P100001</t>
   </si>
   <si>
-    <t>คุณชญานันท์ พิมพ์วันวงศ์</t>
-  </si>
-  <si>
-    <t>84 กู่ช้าง กู่ม้า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0889479895 </t>
-  </si>
-  <si>
-    <t>bbbbbbbbb</t>
-  </si>
-  <si>
-    <t>O121092700405</t>
-  </si>
-  <si>
-    <t>คุณรัตนกร วณิชย์กุล</t>
-  </si>
-  <si>
-    <t>18/6 สุขุมวิท 23 ซอยประสานมิตร</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0954314475 </t>
+    <t>คุณวันเร็ด เซ็น</t>
+  </si>
+  <si>
+    <t>89/9 ศรีมรกตอพาร์ทเม้นต์ ซอย วัดประยูร(ซอยกลาง) ถนน พหลโยธิน81, ต. , อ.บางกรวย, จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>Tel. 092 3611022</t>
   </si>
 </sst>
 </file>
@@ -452,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -465,7 +447,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="107" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -541,25 +523,23 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>12000</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2">
-        <v>51000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -571,40 +551,9 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>10110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -77,13 +77,13 @@
     <t>P100001</t>
   </si>
   <si>
-    <t>คุณวันเร็ด เซ็น</t>
-  </si>
-  <si>
-    <t>89/9 ศรีมรกตอพาร์ทเม้นต์ ซอย วัดประยูร(ซอยกลาง) ถนน พหลโยธิน81, ต. , อ.บางกรวย, จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>Tel. 092 3611022</t>
+    <t>วิชัย บงแก้ว</t>
+  </si>
+  <si>
+    <t>135 ม.5, ต.บ้านเรือ , อ.ภูเวียง, จ.ขอนแก่น</t>
+  </si>
+  <si>
+    <t>Tel. 093-5259563, -</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="107" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="50" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>12000</v>
+        <v>40150</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -77,13 +77,25 @@
     <t>P100001</t>
   </si>
   <si>
-    <t>วิชัย บงแก้ว</t>
-  </si>
-  <si>
-    <t>135 ม.5, ต.บ้านเรือ , อ.ภูเวียง, จ.ขอนแก่น</t>
-  </si>
-  <si>
-    <t>Tel. 093-5259563, -</t>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>54/325 90/16 ( หลังตลาดเทวราช ) 4 ซอย ถนน , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>Tel. 0818683278</t>
+  </si>
+  <si>
+    <t>O121102700003</t>
+  </si>
+  <si>
+    <t>ทดสอบ ชอบทดลอง</t>
+  </si>
+  <si>
+    <t>123, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>Tel. 1234567890, 1234567890</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -447,7 +459,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="50" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="96" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -536,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>40150</v>
+        <v>10560</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -552,6 +564,39 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10230</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3">
         <v>1</v>
       </c>
     </row>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,28 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช ) 4 ซอย ถนน , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>Tel. 0818683278</t>
-  </si>
-  <si>
-    <t>O121102700003</t>
-  </si>
-  <si>
-    <t>ทดสอบ ชอบทดลอง</t>
-  </si>
-  <si>
-    <t>123, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>Tel. 1234567890, 1234567890</t>
+    <t>O121100600086</t>
+  </si>
+  <si>
+    <t>คุณปาลิตา</t>
+  </si>
+  <si>
+    <t>244/1 ม.6, ต.ห้วยเกตุ , อ.ตะพานหิน, จ.พิจิตร</t>
+  </si>
+  <si>
+    <t>Tel. 062-7451197</t>
   </si>
 </sst>
 </file>
@@ -442,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -454,25 +442,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="96" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="52.987061" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -548,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10560</v>
+        <v>66110</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -564,39 +552,6 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>10230</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3">
         <v>1</v>
       </c>
     </row>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,25 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121100600086</t>
-  </si>
-  <si>
-    <t>คุณปาลิตา</t>
-  </si>
-  <si>
-    <t>244/1 ม.6, ต.ห้วยเกตุ , อ.ตะพานหิน, จ.พิจิตร</t>
-  </si>
-  <si>
-    <t>Tel. 062-7451197</t>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>O121110100003</t>
+  </si>
+  <si>
+    <t>Sirisak P</t>
+  </si>
+  <si>
+    <t>206 m.5, ต.คลองท่อมเหนือ , อ.คลองท่อม, จ.กระบี่</t>
+  </si>
+  <si>
+    <t>Tel. 1234567890</t>
   </si>
 </sst>
 </file>
@@ -430,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -442,25 +451,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="52.987061" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="69" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -536,11 +545,9 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>66110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -552,6 +559,39 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>81120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3">
         <v>1</v>
       </c>
     </row>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,25 +74,13 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>O121110100003</t>
-  </si>
-  <si>
-    <t>Sirisak P</t>
-  </si>
-  <si>
-    <t>206 m.5, ต.คลองท่อมเหนือ , อ.คลองท่อม, จ.กระบี่</t>
-  </si>
-  <si>
-    <t>Tel. 1234567890</t>
+    <t>O121110200003</t>
+  </si>
+  <si>
+    <t>999999999999999999999, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>Tel. 99999999999999999</t>
   </si>
 </sst>
 </file>
@@ -439,11 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -451,25 +439,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="69" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="83.693848" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -538,16 +526,18 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>999999999999999</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>10230</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -559,40 +549,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>81120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,13 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121110200003</t>
-  </si>
-  <si>
-    <t>999999999999999999999, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>Tel. 99999999999999999</t>
+    <t>O121110400031</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxx, ต.ดงลิง , อ.กมลาไสย, จ.กาฬสินธุ์</t>
+  </si>
+  <si>
+    <t>Tel. 33333333333</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -439,25 +442,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="83.693848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="56" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -526,17 +529,17 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>999999999999999</v>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>10230</v>
+        <v>46130</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -549,7 +552,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,16 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121110400031</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxx, ต.ดงลิง , อ.กมลาไสย, จ.กาฬสินธุ์</t>
-  </si>
-  <si>
-    <t>Tel. 33333333333</t>
+    <t>O121110500032</t>
+  </si>
+  <si>
+    <t>คุณเอ</t>
+  </si>
+  <si>
+    <t>123, ต. , อ.ร้องกวาง, จ.ชัยภูมิ</t>
+  </si>
+  <si>
+    <t>Tel. 555555</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="56" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>46130</v>
+        <v>36140</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,16 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121110500032</t>
-  </si>
-  <si>
-    <t>คุณเอ</t>
-  </si>
-  <si>
-    <t>123, ต. , อ.ร้องกวาง, จ.ชัยภูมิ</t>
-  </si>
-  <si>
-    <t>Tel. 555555</t>
+    <t>O121112200147</t>
+  </si>
+  <si>
+    <t>erert</t>
+  </si>
+  <si>
+    <t>etetetet, ต.แขวงคลองต้นไทร , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>Tel. 11111111111111</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="69" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>36140</v>
+        <v>10600</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,25 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121112200147</t>
-  </si>
-  <si>
-    <t>erert</t>
-  </si>
-  <si>
-    <t>etetetet, ต.แขวงคลองต้นไทร , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>Tel. 11111111111111</t>
+    <t>P100002</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>O121112400158</t>
+  </si>
+  <si>
+    <t>นางสาวมัชรี ชุมทอง</t>
+  </si>
+  <si>
+    <t>123, ต.แขวงคลองต้นไทร , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>Tel. 1234567890</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -536,11 +545,9 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10600</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -552,7 +559,40 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>10600</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>123, ต.แขวงคลองต้นไทร , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>Tel. 1234567890</t>
   </si>
 </sst>
 </file>
@@ -578,11 +575,11 @@
       <c r="G3">
         <v>10600</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
+      <c r="J3">
+        <v>1234567890</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -72,24 +72,6 @@
   </si>
   <si>
     <t>Service Code (รหัสบริการ)</t>
-  </si>
-  <si>
-    <t>P100002</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>O121112400158</t>
-  </si>
-  <si>
-    <t>นางสาวมัชรี ชุมทอง</t>
-  </si>
-  <si>
-    <t>123, ต.แขวงคลองต้นไทร , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
   </si>
 </sst>
 </file>
@@ -440,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -453,7 +435,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="69" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -528,70 +510,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>10600</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3">
-        <v>1234567890</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Service Code (รหัสบริการ)</t>
+  </si>
+  <si>
+    <t>P100036</t>
+  </si>
+  <si>
+    <t>88888888888888888, ต.แขวงจอมทอง , อ.เขตจอมทอง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>O122010400007</t>
+  </si>
+  <si>
+    <t>คุณ อธิษฐ์โภคิน  ภัทร์รัฐชัย</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -435,7 +450,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -510,6 +525,70 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:19">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>88888888888888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10150</v>
+      </c>
+      <c r="H2">
+        <v>888888888</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>10560</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,10 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100036</t>
-  </si>
-  <si>
-    <t>88888888888888888, ต.แขวงจอมทอง , อ.เขตจอมทอง, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>O122010400007</t>
-  </si>
-  <si>
-    <t>คุณ อธิษฐ์โภคิน  ภัทร์รัฐชัย</t>
+    <t>O122010500012</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
@@ -437,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -532,18 +526,16 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>88888888888888</v>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>10150</v>
-      </c>
-      <c r="H2">
-        <v>888888888</v>
-      </c>
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -555,38 +547,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>10560</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,13 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O122010500012</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+    <t>P100044</t>
+  </si>
+  <si>
+    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>O122010500023</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -547,7 +550,38 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>35</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>10560</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100044</t>
-  </si>
-  <si>
-    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
+    <t>P100019</t>
+  </si>
+  <si>
+    <t>นางสาวปาริชาติ ทรายคำ</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
   </si>
   <si>
-    <t>O122010500023</t>
+    <t>O122011000139</t>
+  </si>
+  <si>
+    <t>นางพัทธนันท์ หอมบุญญาศักดิ์</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -561,7 +564,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -581,7 +584,7 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,19 +74,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100019</t>
-  </si>
-  <si>
-    <t>นางสาวปาริชาติ ทรายคำ</t>
+    <t>P100004</t>
+  </si>
+  <si>
+    <t>คุณ อธิษฐ์โภคิน  ภัทร์รัฐชัย</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
   </si>
   <si>
-    <t>O122011000139</t>
-  </si>
-  <si>
-    <t>นางพัทธนันท์ หอมบุญญาศักดิ์</t>
+    <t>O122011800006</t>
+  </si>
+  <si>
+    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -542,7 +542,9 @@
         <v>10560</v>
       </c>
       <c r="H2"/>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -552,19 +554,17 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2">
-        <v>12</v>
-      </c>
+      <c r="S2"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -573,7 +573,9 @@
         <v>10560</v>
       </c>
       <c r="H3"/>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -583,9 +585,162 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3">
-        <v>12</v>
-      </c>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>10560</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>10560</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>10560</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>10560</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>10560</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,19 +74,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
+    <t>P100003</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
     <t>P100004</t>
   </si>
   <si>
-    <t>คุณ อธิษฐ์โภคิน  ภัทร์รัฐชัย</t>
-  </si>
-  <si>
-    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>O122011800006</t>
-  </si>
-  <si>
-    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
+    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -592,13 +592,13 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>10560</v>
@@ -618,129 +618,36 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
+      <c r="G5">
         <v>10560</v>
       </c>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>10560</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>10560</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>10560</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -437,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -649,6 +649,68 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
+    <row r="6" spans="1:19">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>10560</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>10560</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,19 +74,73 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
+    <t>P100002</t>
+  </si>
+  <si>
+    <t>8888888, ต.แขวงจอมพล , อ.เขตจตุจักร, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>นายชัยนรินท์ โชโต</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
     <t>P100003</t>
   </si>
   <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>P100004</t>
-  </si>
-  <si>
-    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
+    <t>นางสาวเกษณพัษร์ เพ็งสวัสธนา</t>
+  </si>
+  <si>
+    <t>P100005</t>
+  </si>
+  <si>
+    <t>นายกิตติศักดิ์ วงศ์ทิพย์พันธ์</t>
+  </si>
+  <si>
+    <t>P100008</t>
+  </si>
+  <si>
+    <t>P100006</t>
+  </si>
+  <si>
+    <t>นางสาวยุภา พิมเหล่าหนาด</t>
+  </si>
+  <si>
+    <t>P100007</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>78956144, ต.แขวงคลองสาน , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>P100011</t>
+  </si>
+  <si>
+    <t>นางกรนภารัศม์ สิมมา</t>
+  </si>
+  <si>
+    <t>P100009</t>
+  </si>
+  <si>
+    <t>นายประสิทธิ์ มุกดาห์</t>
+  </si>
+  <si>
+    <t>P100010</t>
+  </si>
+  <si>
+    <t>ไอ้เก้า</t>
+  </si>
+  <si>
+    <t>99/9, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>099-999-9999</t>
   </si>
 </sst>
 </file>
@@ -437,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -449,7 +503,7 @@
     <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="35" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
@@ -532,18 +586,20 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>8888888888</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
       <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2" t="s">
-        <v>20</v>
+        <v>10900</v>
+      </c>
+      <c r="H2">
+        <v>88888</v>
+      </c>
+      <c r="I2">
+        <v>8888888888</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -561,20 +617,20 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>10560</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -592,10 +648,10 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -605,7 +661,7 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -623,10 +679,10 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -636,7 +692,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -654,10 +710,10 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -667,7 +723,7 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -685,10 +741,10 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -698,7 +754,7 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -710,6 +766,132 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>10600</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>10560</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>10560</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>10230</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,73 +74,13 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100002</t>
-  </si>
-  <si>
-    <t>8888888, ต.แขวงจอมพล , อ.เขตจตุจักร, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>นายชัยนรินท์ โชโต</t>
+    <t>P100016</t>
+  </si>
+  <si>
+    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>P100003</t>
-  </si>
-  <si>
-    <t>นางสาวเกษณพัษร์ เพ็งสวัสธนา</t>
-  </si>
-  <si>
-    <t>P100005</t>
-  </si>
-  <si>
-    <t>นายกิตติศักดิ์ วงศ์ทิพย์พันธ์</t>
-  </si>
-  <si>
-    <t>P100008</t>
-  </si>
-  <si>
-    <t>P100006</t>
-  </si>
-  <si>
-    <t>นางสาวยุภา พิมเหล่าหนาด</t>
-  </si>
-  <si>
-    <t>P100007</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>78956144, ต.แขวงคลองสาน , อ.เขตคลองสาน, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>P100011</t>
-  </si>
-  <si>
-    <t>นางกรนภารัศม์ สิมมา</t>
-  </si>
-  <si>
-    <t>P100009</t>
-  </si>
-  <si>
-    <t>นายประสิทธิ์ มุกดาห์</t>
-  </si>
-  <si>
-    <t>P100010</t>
-  </si>
-  <si>
-    <t>ไอ้เก้า</t>
-  </si>
-  <si>
-    <t>99/9, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>099-999-9999</t>
   </si>
 </sst>
 </file>
@@ -491,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -503,7 +443,7 @@
     <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="35" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
@@ -586,20 +526,18 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>8888888888</v>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2">
-        <v>10900</v>
-      </c>
-      <c r="H2">
-        <v>88888</v>
-      </c>
-      <c r="I2">
-        <v>8888888888</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -611,287 +549,6 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>10560</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>10560</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>10560</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>10560</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>10560</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>10600</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>10560</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>10560</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>10230</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,10 +74,10 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100016</t>
-  </si>
-  <si>
-    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
+    <t>P100061</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,13 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100061</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+    <t>P100040</t>
+  </si>
+  <si>
+    <t>คุณอัญชนา เมธาวิกูล</t>
+  </si>
+  <si>
+    <t>202 (ห้อง A) ปั๊มปตท. หน้าบิ๊กซีดอนจั่น, ต.ท่าศาลา , อ.เมืองเชียงใหม่, จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t>096-926-3983</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="97" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -533,9 +536,11 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2"/>
+        <v>50000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100040</t>
-  </si>
-  <si>
-    <t>คุณอัญชนา เมธาวิกูล</t>
-  </si>
-  <si>
-    <t>202 (ห้อง A) ปั๊มปตท. หน้าบิ๊กซีดอนจั่น, ต.ท่าศาลา , อ.เมืองเชียงใหม่, จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t>096-926-3983</t>
+    <t>P100047</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>P100048</t>
+  </si>
+  <si>
+    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -447,7 +450,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="97" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -536,11 +539,9 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>50000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>20</v>
       </c>
@@ -554,6 +555,130 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>10560</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>10560</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>10560</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>10560</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,19 +74,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100047</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>P100048</t>
-  </si>
-  <si>
-    <t>คุณ ปริยากรโสภณ  พงศ์บุณยภา</t>
+    <t>P100009</t>
+  </si>
+  <si>
+    <t>คุณบูรเดช ภิรมย์ปักษา</t>
+  </si>
+  <si>
+    <t>130/2 ถ.ฟื่องนคร, ต.แขวงวังบูรพาภิรมย์ , อ.เขตพระนคร, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>099-909-9465</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="82" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -539,9 +536,11 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2"/>
+        <v>10200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
@@ -570,9 +569,11 @@
         <v>21</v>
       </c>
       <c r="G3">
-        <v>10560</v>
-      </c>
-      <c r="H3"/>
+        <v>10200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
@@ -592,20 +593,22 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4">
-        <v>10560</v>
-      </c>
-      <c r="H4"/>
+        <v>10200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -623,20 +626,22 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5">
-        <v>10560</v>
-      </c>
-      <c r="H5"/>
+        <v>10200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -654,20 +659,22 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6">
-        <v>10560</v>
-      </c>
-      <c r="H6"/>
+        <v>10200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,52 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100009</t>
-  </si>
-  <si>
-    <t>คุณบูรเดช ภิรมย์ปักษา</t>
-  </si>
-  <si>
-    <t>130/2 ถ.ฟื่องนคร, ต.แขวงวังบูรพาภิรมย์ , อ.เขตพระนคร, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>099-909-9465</t>
+    <t>AIYE016230103</t>
+  </si>
+  <si>
+    <t>P100012</t>
+  </si>
+  <si>
+    <t>นางรุ่งนภา วีระกุล</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>AIYE016230104</t>
+  </si>
+  <si>
+    <t>P100011</t>
+  </si>
+  <si>
+    <t>AIYE016230105</t>
+  </si>
+  <si>
+    <t>P100010</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>25/789, ต.เขาสมิง , อ.เขาสมิง, จ.ตราด</t>
+  </si>
+  <si>
+    <t>020263555</t>
+  </si>
+  <si>
+    <t>AIYE016230106</t>
+  </si>
+  <si>
+    <t>P100008</t>
+  </si>
+  <si>
+    <t>คุณสุกฤตา คล้ายวิเชียร</t>
+  </si>
+  <si>
+    <t>127 รามอินทรา 14 แยก 9 ซอย 10, ต.แขวงท่าแร้ง , อ.เขตบางเขน, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>0641528928</t>
   </si>
 </sst>
 </file>
@@ -434,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -447,7 +483,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="82" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -523,169 +559,164 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2">
-        <v>10200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
       <c r="N2"/>
-      <c r="O2"/>
+      <c r="O2">
+        <v>1</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>10560</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3">
-        <v>10200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
       <c r="N3"/>
-      <c r="O3"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>10200</v>
+        <v>23130</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
       <c r="N4"/>
-      <c r="O4"/>
+      <c r="O4">
+        <v>1</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>10200</v>
+        <v>10220</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5"/>
-      <c r="O5"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>10200</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,16 +74,28 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100009</t>
-  </si>
-  <si>
-    <t>ไพศาล</t>
-  </si>
-  <si>
-    <t>555/66, ต.แขวงจรเข้บัว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>087-123-4567</t>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>พี่แขก</t>
+  </si>
+  <si>
+    <t>55, ต.แขวงทรายกองดินใต้ , อ.เขตคลองสามวา, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>0683352478</t>
+  </si>
+  <si>
+    <t>P100002</t>
+  </si>
+  <si>
+    <t>แนน</t>
+  </si>
+  <si>
+    <t>85, ต.คลองท่อมใต้ , อ.คลองท่อม, จ.กระบี่</t>
+  </si>
+  <si>
+    <t>09583532</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -447,7 +459,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="65" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="68" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -536,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10230</v>
+        <v>10510</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -544,9 +556,7 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -556,6 +566,39 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>81120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,28 +74,13 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>พี่แขก</t>
-  </si>
-  <si>
-    <t>55, ต.แขวงทรายกองดินใต้ , อ.เขตคลองสามวา, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>0683352478</t>
-  </si>
-  <si>
-    <t>P100002</t>
-  </si>
-  <si>
-    <t>แนน</t>
-  </si>
-  <si>
-    <t>85, ต.คลองท่อมใต้ , อ.คลองท่อม, จ.กระบี่</t>
-  </si>
-  <si>
-    <t>09583532</t>
+    <t>P100024</t>
+  </si>
+  <si>
+    <t>นายจรูญ อินทนาศักดิ์</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
   </si>
 </sst>
 </file>
@@ -446,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -459,7 +444,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="68" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -548,11 +533,9 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10510</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>20</v>
       </c>
@@ -566,39 +549,6 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>81120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,10 +74,10 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100024</t>
-  </si>
-  <si>
-    <t>นายจรูญ อินทนาศักดิ์</t>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>นายโสภณ อินสโร</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,10 +74,10 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>นายโสภณ อินสโร</t>
+    <t>P100003</t>
+  </si>
+  <si>
+    <t>นายจรูญ อินทนาศักดิ์</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -74,10 +74,10 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100003</t>
-  </si>
-  <si>
-    <t>นายจรูญ อินทนาศักดิ์</t>
+    <t>P100016</t>
+  </si>
+  <si>
+    <t>นางธัญพร ชมภูโคตร</t>
   </si>
   <si>
     <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
@@ -113,10 +113,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -533,13 +530,17 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2"/>
+        <v>10310</v>
+      </c>
+      <c r="H2">
+        <v>234123</v>
+      </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2"/>
+      <c r="J2">
+        <v>1111111111</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -563,5 +564,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,13 +74,31 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100016</t>
-  </si>
-  <si>
-    <t>นางธัญพร ชมภูโคตร</t>
-  </si>
-  <si>
-    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+    <t>P100007</t>
+  </si>
+  <si>
+    <t>น.ส.พิมพ์วลัญช์ นามจันดา</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร, ต. , อ., จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>020263555</t>
+  </si>
+  <si>
+    <t>P100008</t>
+  </si>
+  <si>
+    <t>จันทร์</t>
+  </si>
+  <si>
+    <t>78, ต. , อ.เขตป้อมปราบศัตรูพ่าย, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>0837171442</t>
+  </si>
+  <si>
+    <t>020-263-5555</t>
   </si>
 </sst>
 </file>
@@ -428,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:S1"/>
@@ -441,7 +459,7 @@
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="159" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -530,17 +548,15 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10310</v>
-      </c>
-      <c r="H2">
-        <v>234123</v>
+        <v>10560</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>1111111111</v>
-      </c>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -550,6 +566,41 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10540</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,90 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>Consignment No. (หมายเลขพัสดุ)</t>
-  </si>
-  <si>
-    <t>Customer Ref No. (เลขอ้างอิง)</t>
-  </si>
-  <si>
-    <t>Sender Code (รหัสผู้ส่ง)</t>
-  </si>
-  <si>
-    <t>Recipient Code (รหัสผู้รับ)</t>
-  </si>
-  <si>
-    <t>Recipient Name (ชื่อผู้รับ)</t>
-  </si>
-  <si>
-    <t>Address (ที่อยู่ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Postcode (รหัสไปรษณีย์ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Mobile (เบอร์มือถือผู้รับ)</t>
-  </si>
-  <si>
-    <t>Contact Person (ชื่อผู้ติดต่อ)</t>
-  </si>
-  <si>
-    <t>Phone No. (เบอร์ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Email (อีเมลผู้รับ)</t>
-  </si>
-  <si>
-    <t>Declare Value (มูลค่าสินค้า)</t>
-  </si>
-  <si>
-    <t>COD Amount (ยอดเก็บเงินปลายทาง)</t>
-  </si>
-  <si>
-    <t>Remark (หมายเหตุ)</t>
-  </si>
-  <si>
-    <t>Total Box (จำนวนกล่อง)</t>
-  </si>
-  <si>
-    <t>Sat Del (จัดส่งวันเสาร์)</t>
-  </si>
-  <si>
-    <t>HCR (Y/N)</t>
-  </si>
-  <si>
-    <t>INVR (Y/N)</t>
-  </si>
-  <si>
-    <t>Service Code (รหัสบริการ)</t>
-  </si>
-  <si>
-    <t>P100007</t>
-  </si>
-  <si>
-    <t>น.ส.พิมพ์วลัญช์ นามจันดา</t>
-  </si>
-  <si>
-    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร, ต. , อ., จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>020263555</t>
-  </si>
-  <si>
-    <t>P100008</t>
-  </si>
-  <si>
-    <t>จันทร์</t>
-  </si>
-  <si>
-    <t>78, ต. , อ.เขตป้อมปราบศัตรูพ่าย, จ.สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>0837171442</t>
-  </si>
-  <si>
-    <t>020-263-5555</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>วันเดือนปี</t>
+  </si>
+  <si>
+    <t>เลขที่เอกสาร</t>
+  </si>
+  <si>
+    <t>ชื่อ-นามสกุล</t>
+  </si>
+  <si>
+    <t>มูลค่าสินค้า</t>
+  </si>
+  <si>
+    <t>ภาษีมูลค่าเพิ่ม</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>เงินสด</t>
+  </si>
+  <si>
+    <t>เงินโอน</t>
+  </si>
+  <si>
+    <t>เครดิต</t>
+  </si>
+  <si>
+    <t>Ai-Cash</t>
   </si>
 </sst>
 </file>
@@ -446,36 +392,27 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:S1"/>
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="159" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,101 +443,6 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>10540</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,36 +15,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>วันเดือนปี</t>
-  </si>
-  <si>
-    <t>เลขที่เอกสาร</t>
-  </si>
-  <si>
-    <t>ชื่อ-นามสกุล</t>
-  </si>
-  <si>
-    <t>มูลค่าสินค้า</t>
-  </si>
-  <si>
-    <t>ภาษีมูลค่าเพิ่ม</t>
-  </si>
-  <si>
-    <t>รวม</t>
-  </si>
-  <si>
-    <t>เงินสด</t>
-  </si>
-  <si>
-    <t>เงินโอน</t>
-  </si>
-  <si>
-    <t>เครดิต</t>
-  </si>
-  <si>
-    <t>Ai-Cash</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>Consignment No. (หมายเลขพัสดุ)</t>
+  </si>
+  <si>
+    <t>Customer Ref No. (เลขอ้างอิง)</t>
+  </si>
+  <si>
+    <t>Sender Code (รหัสผู้ส่ง)</t>
+  </si>
+  <si>
+    <t>Recipient Code (รหัสผู้รับ)</t>
+  </si>
+  <si>
+    <t>Recipient Name (ชื่อผู้รับ)</t>
+  </si>
+  <si>
+    <t>Address (ที่อยู่ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Postcode (รหัสไปรษณีย์ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Mobile (เบอร์มือถือผู้รับ)</t>
+  </si>
+  <si>
+    <t>Contact Person (ชื่อผู้ติดต่อ)</t>
+  </si>
+  <si>
+    <t>Phone No. (เบอร์ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Email (อีเมลผู้รับ)</t>
+  </si>
+  <si>
+    <t>Declare Value (มูลค่าสินค้า)</t>
+  </si>
+  <si>
+    <t>COD Amount (ยอดเก็บเงินปลายทาง)</t>
+  </si>
+  <si>
+    <t>Remark (หมายเหตุ)</t>
+  </si>
+  <si>
+    <t>Total Box (จำนวนกล่อง)</t>
+  </si>
+  <si>
+    <t>Sat Del (จัดส่งวันเสาร์)</t>
+  </si>
+  <si>
+    <t>HCR (Y/N)</t>
+  </si>
+  <si>
+    <t>INVR (Y/N)</t>
+  </si>
+  <si>
+    <t>Service Code (รหัสบริการ)</t>
+  </si>
+  <si>
+    <t>Consignment Type (ประเภทพัสดุ)</t>
+  </si>
+  <si>
+    <t>P104160</t>
+  </si>
+  <si>
+    <t>213213123 อาคารไอยเรศวร หมู่. 4 ซอย. ซ.ลาดพร้าว84 ถนน. สู่ความสำเร็จ  อาคารไอยเรศวร หมู่. 4 ซอย. ซ.ลาดพร้าว84 ถนน. สู่ความสำเร็จ , ต.คลองท่อมเหนือ , อ.คลองท่อม, จ.กระบี่</t>
+  </si>
+  <si>
+    <t>21111111111111111111</t>
   </si>
 </sst>
 </file>
@@ -88,10 +127,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,27 +431,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:J1"/>
+      <selection activeCell="A1" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="200" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="38" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,6 +492,72 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1232132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>81120</v>
+      </c>
+      <c r="H2">
+        <v>321333333123</v>
+      </c>
+      <c r="I2">
+        <v>1232132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -77,13 +77,443 @@
     <t>Consignment Type (ประเภทพัสดุ)</t>
   </si>
   <si>
-    <t>P104160</t>
-  </si>
-  <si>
-    <t>213213123 อาคารไอยเรศวร หมู่. 4 ซอย. ซ.ลาดพร้าว84 ถนน. สู่ความสำเร็จ  อาคารไอยเรศวร หมู่. 4 ซอย. ซ.ลาดพร้าว84 ถนน. สู่ความสำเร็จ , ต.คลองท่อมเหนือ , อ.คลองท่อม, จ.กระบี่</t>
-  </si>
-  <si>
-    <t>21111111111111111111</t>
+    <t>P104112</t>
+  </si>
+  <si>
+    <t>Nimmiji Neam</t>
+  </si>
+  <si>
+    <t>65/120 ปากซอย 17 บางใหญ่ซิตี้, ต.เสาธงหิน , อ.บางใหญ่, จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>0895604410</t>
+  </si>
+  <si>
+    <t>P104114</t>
+  </si>
+  <si>
+    <t>ณภัทร ทับโพธิ์</t>
+  </si>
+  <si>
+    <t>254, ต.กุดน้อย , อ.สีคิ้ว, จ.นครราชสีมา</t>
+  </si>
+  <si>
+    <t>089-285-9485</t>
+  </si>
+  <si>
+    <t>P104113</t>
+  </si>
+  <si>
+    <t>ดิเรก อินทวงค์</t>
+  </si>
+  <si>
+    <t>17, ต.หนองแม่นา , อ.เขาค้อ, จ.เพชรบูรณ์</t>
+  </si>
+  <si>
+    <t>063-826-6876</t>
+  </si>
+  <si>
+    <t>P104115</t>
+  </si>
+  <si>
+    <t>คุณมินท์ พิชชานันท์</t>
+  </si>
+  <si>
+    <t>(306) สมอล์วิว 99 ถ.ทรงพล, ต.พระปฐมเจดีย์ , อ.เมืองนครปฐม, จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>095-464-2989</t>
+  </si>
+  <si>
+    <t>P104116</t>
+  </si>
+  <si>
+    <t>ปราณี บุญเป้</t>
+  </si>
+  <si>
+    <t>133/3, ต.ท่าหลวง , อ.ท่าเรือ, จ.พระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>097-129-2689</t>
+  </si>
+  <si>
+    <t>P104117</t>
+  </si>
+  <si>
+    <t>นางสาวสำเนา เขียวศิริ</t>
+  </si>
+  <si>
+    <t>999 บริษัท โตโยต้า ชัยรัชการ จำกัด 6  ทางเข้าท่าอากาศยานสุวรรณภูมิ ด้านถนนบางนา-ตราด , ต.บางโฉลง , อ.บางพลี, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>081-632-3190</t>
+  </si>
+  <si>
+    <t>P104128</t>
+  </si>
+  <si>
+    <t>นายอุเทน ภักดี</t>
+  </si>
+  <si>
+    <t>99/22 - 7 ปู่น่วมแสงสว่าง - , ต.ทะเลชุบศร , อ.เมืองลพบุรี, จ.ลพบุรี</t>
+  </si>
+  <si>
+    <t>061-991-6362</t>
+  </si>
+  <si>
+    <t>P104118</t>
+  </si>
+  <si>
+    <t>มณฑกานต์ ไกรศาสตร์(เอ๊ะ)</t>
+  </si>
+  <si>
+    <t>147/2-3, ต.แขวงบางมด , อ.เขตทุ่งครุ, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>089-897-3814</t>
+  </si>
+  <si>
+    <t>P104119</t>
+  </si>
+  <si>
+    <t>เด่นเดือน อินทยศ</t>
+  </si>
+  <si>
+    <t>43/2, ต.แม่สา , อ.แม่ริม, จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t>092-373-7368</t>
+  </si>
+  <si>
+    <t>P104120</t>
+  </si>
+  <si>
+    <t>วิมล แซ่ตั้ง</t>
+  </si>
+  <si>
+    <t>407-407/1-2, ต.สะเตง , อ.เมืองยะลา, จ.ยะลา</t>
+  </si>
+  <si>
+    <t>081-766-3689</t>
+  </si>
+  <si>
+    <t>P104121</t>
+  </si>
+  <si>
+    <t>ณรัณกาญศ์ ฮ่อคนดี</t>
+  </si>
+  <si>
+    <t>10, ต.แขวงพระโขนงเหนือ , อ.เขตวัฒนา, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>095-489-9599</t>
+  </si>
+  <si>
+    <t>P104122</t>
+  </si>
+  <si>
+    <t>P104123</t>
+  </si>
+  <si>
+    <t>เกรียงศักดิ์ เลิศมโนรัตน์</t>
+  </si>
+  <si>
+    <t>65/34, หมู่.5, NC on Green Charm, ลำลูกกา 71, ถนน.ลำลูกกา,, ต.ลาดสวาย , อ.ลำลูกกา, จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>064-654-6161</t>
+  </si>
+  <si>
+    <t>P104124</t>
+  </si>
+  <si>
+    <t>P104125</t>
+  </si>
+  <si>
+    <t>P104126</t>
+  </si>
+  <si>
+    <t>ณัฐนรี  แสนพงษ์</t>
+  </si>
+  <si>
+    <t>194/149, ต.บางพลีใหญ่ , อ.บางพลี, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>086-793-0588</t>
+  </si>
+  <si>
+    <t>P104129</t>
+  </si>
+  <si>
+    <t>รจชรินทร์ ภักดี</t>
+  </si>
+  <si>
+    <t>99/22, ต.ทะเลชุบศร , อ.เมืองลพบุรี, จ.ลพบุรี</t>
+  </si>
+  <si>
+    <t>P104127</t>
+  </si>
+  <si>
+    <t>คุณรสริน โพธิญาณ์</t>
+  </si>
+  <si>
+    <t>106/217 บ้านบัวทอง หลังพลัมคอนโดคลองถนน ซอย 21/5 หมู่ 6, ต.บางรักพัฒนา , อ.บางบัวทอง, จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>082-696-8542</t>
+  </si>
+  <si>
+    <t>P104130</t>
+  </si>
+  <si>
+    <t>นายปาณัสม์เชษฐ์ เกตุแก้วกุลวงศ์</t>
+  </si>
+  <si>
+    <t>9/53 ปรีชา - รามคำแหง 158 รามคำแหง , ต.แขวงราษฎร์พัฒนา , อ.เขตสะพานสูง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>065-526-3400</t>
+  </si>
+  <si>
+    <t>P104137</t>
+  </si>
+  <si>
+    <t>คุณเพชรา เสมาชัย</t>
+  </si>
+  <si>
+    <t>64 ม.4, ต.กระเทียม , อ.สังขะ, จ.สุรินทร์</t>
+  </si>
+  <si>
+    <t>080-313-5268</t>
+  </si>
+  <si>
+    <t>P104131</t>
+  </si>
+  <si>
+    <t>นางสุจิตรา เจริญภัทรเภสัช</t>
+  </si>
+  <si>
+    <t>176, หมู่.11, ต.วังน้ำเขียว , อ.วังน้ำเขียว, จ.นครราชสีมา</t>
+  </si>
+  <si>
+    <t>061-519-4562</t>
+  </si>
+  <si>
+    <t>P104132</t>
+  </si>
+  <si>
+    <t>ภิชาภรณ์    ศิริเธียรวานิช</t>
+  </si>
+  <si>
+    <t>165/457, ต.เสม็ด , อ.เมืองชลบุรี, จ.ชลบุรี</t>
+  </si>
+  <si>
+    <t>097-005-1815</t>
+  </si>
+  <si>
+    <t>P104133</t>
+  </si>
+  <si>
+    <t>คุณสุภาพร  ชายทวีป</t>
+  </si>
+  <si>
+    <t>668/34 หมู่บ้านเสริมศิริ
+ถ.พระยาสุเรนทร์, ต.แขวงบางชัน , อ.เขตคลองสามวา, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>085-635-4669</t>
+  </si>
+  <si>
+    <t>P104134</t>
+  </si>
+  <si>
+    <t>นางสาวอลิสา ลิ่มสกุล</t>
+  </si>
+  <si>
+    <t>55/124 หมู่บ้านพฤกษาวิลเลจ 2 2 ซอย 21 รังสิต-นครนายก , ต.ลำผักกูด , อ.ธัญบุรี, จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>086-972-7056</t>
+  </si>
+  <si>
+    <t>P104135</t>
+  </si>
+  <si>
+    <t>นายชุติพนธ์ ชัชวงษ์</t>
+  </si>
+  <si>
+    <t>88 คลองกรูด 2 ซ.ลาดพร้าว84  , ต.ทุ่งรัง , อ.กาญจนดิษฐ์, จ.สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>081-728-2452</t>
+  </si>
+  <si>
+    <t>P104136</t>
+  </si>
+  <si>
+    <t>ทิพวรรณ เอื้ออารีอารยะ</t>
+  </si>
+  <si>
+    <t>611/40, ต.แขวงบางโคล่ , อ.เขตบางคอแหลม, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>092-246-5533</t>
+  </si>
+  <si>
+    <t>P104142</t>
+  </si>
+  <si>
+    <t>คุณพิกุล  งวดสง</t>
+  </si>
+  <si>
+    <t>206, ต.ท่าตูม , อ.ศรีมหาโพธิ, จ.ปราจีนบุรี</t>
+  </si>
+  <si>
+    <t>085-835-8122</t>
+  </si>
+  <si>
+    <t>P104138</t>
+  </si>
+  <si>
+    <t>คุณกำไล  โพธิตรัส</t>
+  </si>
+  <si>
+    <t>194 ม.3, ต.ลานกระบือ , อ.ลานกระบือ, จ.กำแพงเพชร</t>
+  </si>
+  <si>
+    <t>064-947-6412</t>
+  </si>
+  <si>
+    <t>P104147</t>
+  </si>
+  <si>
+    <t>คุณกฤชพรรณ จุติรัตน์สกุล</t>
+  </si>
+  <si>
+    <t>70/19 ซอย 119/4 หมู่บ้านเสนานิเวศน์ ซอยเสนานิคม 1 ถนนพหลโยธิน 32, ต.แขวงจรเข้บัว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>09-4456-3695</t>
+  </si>
+  <si>
+    <t>P104139</t>
+  </si>
+  <si>
+    <t>คุณอัญชนา เมธาวิกูล</t>
+  </si>
+  <si>
+    <t>202 ปั๊มปตท. หน้าบิ๊กซีดอนจั่น (ห้อง A), ต.ท่าศาลา , อ.เมืองเชียงใหม่, จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t>096-926-3983</t>
+  </si>
+  <si>
+    <t>P104141</t>
+  </si>
+  <si>
+    <t>คุณเจษฎาพร กันยามา</t>
+  </si>
+  <si>
+    <t>88/42 วิภาวดีสวีท ลาดพร้าวซอย 8, ต.แขวงจอมพล , อ.เขตจตุจักร, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>0965415788</t>
+  </si>
+  <si>
+    <t>P104140</t>
+  </si>
+  <si>
+    <t>คุณมณวรัตน์ โกพัฒตา</t>
+  </si>
+  <si>
+    <t>59/48 หมู่บ้านสุขทิพย์ ถนนเลียบคลองสอง, ต.แขวงบางชัน , อ.เขตคลองสามวา, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>085-8345000</t>
+  </si>
+  <si>
+    <t>P104143</t>
+  </si>
+  <si>
+    <t>ปวริศา คูสกุลธรรม</t>
+  </si>
+  <si>
+    <t>54/11-12, ต.ในเมือง , อ.เมืองเพชรบูรณ์, จ.เพชรบูรณ์</t>
+  </si>
+  <si>
+    <t>084-193-6555</t>
+  </si>
+  <si>
+    <t>P104144</t>
+  </si>
+  <si>
+    <t>คุณแอนนา มณีศิลป์</t>
+  </si>
+  <si>
+    <t>454/162  มบ.ชนชอบธันธวัช ซ.วัชรพล 3 ถ.รามอินทรา, ต.แขวงคลองถนน , อ.เขตสายไหม, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>099-195-5998</t>
+  </si>
+  <si>
+    <t>P104145</t>
+  </si>
+  <si>
+    <t>คุณวรวิทย์ อินเดีย</t>
+  </si>
+  <si>
+    <t>77/3 ม.8, ต.หาดสำราญ , อ.หาดสำราญ, จ.ตรัง</t>
+  </si>
+  <si>
+    <t>0916947493</t>
+  </si>
+  <si>
+    <t>P104146</t>
+  </si>
+  <si>
+    <t>นางสายรุ้ง ทัศมาลี</t>
+  </si>
+  <si>
+    <t>204/87 พาลาซเซตโตZet2 5 - - , ต.ลำไทร , อ.วังน้อย, จ.พระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>062-931-5255</t>
+  </si>
+  <si>
+    <t>P104148</t>
+  </si>
+  <si>
+    <t>คุณโดนัท (Aon) *โทรก่อนจัดส่งนะคะ*</t>
+  </si>
+  <si>
+    <t>1817/12 ซ.ปรียานนท์ ถ.สาธุประดิษฐ์ (อยู่ระหว่างแยก17-19 ตึกตรงข้ามร้านBig ข้าวนึ่ง), ต.แขวงบางโพงพาง , อ.เขตยานนาวา, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>081-136-2449</t>
+  </si>
+  <si>
+    <t>P104149</t>
+  </si>
+  <si>
+    <t>คุณเอ (อ้น) (ประตูรัวสีดำ)</t>
+  </si>
+  <si>
+    <t>Ship4U 573/119 รามคำแหง 39 ช.27, ต.แขวงพลับพลา , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>088-653-9615</t>
+  </si>
+  <si>
+    <t>P104150</t>
+  </si>
+  <si>
+    <t>คุณทราย (Aon)</t>
+  </si>
+  <si>
+    <t>66/103 อาคารเลขที่ 1 เดอะคริสตัล คอนโดมิเนียม ซ.เรวดี 2, ต.ตลาดขวัญ , อ.เมืองนนทบุรี, จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>082-216-4556</t>
   </si>
 </sst>
 </file>
@@ -431,7 +861,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:T1"/>
@@ -443,11 +873,11 @@
     <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="200" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="156" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="41" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
@@ -530,24 +960,22 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1232132</v>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>11140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>81120</v>
-      </c>
-      <c r="H2">
-        <v>321333333123</v>
-      </c>
-      <c r="I2">
-        <v>1232132</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -558,6 +986,1332 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>30140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>67270</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>73000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>18270</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>10540</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>15000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>10140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>50180</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>95000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>10110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>10110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <v>12150</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <v>10110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>10110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <v>10540</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>15000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>11110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>10240</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21">
+        <v>32150</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22">
+        <v>30370</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <v>20000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>10510</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25">
+        <v>12110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26">
+        <v>84290</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27">
+        <v>10120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28">
+        <v>25140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29">
+        <v>62170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30">
+        <v>10230</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
+        <v>50000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32">
+        <v>10900</v>
+      </c>
+      <c r="H32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33">
+        <v>10510</v>
+      </c>
+      <c r="H33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34">
+        <v>67000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>10220</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36">
+        <v>92120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37">
+        <v>13170</v>
+      </c>
+      <c r="H37" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38">
+        <v>10120</v>
+      </c>
+      <c r="H38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39">
+        <v>10310</v>
+      </c>
+      <c r="H39" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40">
+        <v>11000</v>
+      </c>
+      <c r="H40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/local/public/excel_files/consignments.xlsx
+++ b/local/public/excel_files/consignments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -77,16 +77,28 @@
     <t>Consignment Type (ประเภทพัสดุ)</t>
   </si>
   <si>
-    <t>P109757</t>
-  </si>
-  <si>
-    <t>คุณณัทณิกัญญ์ อัครธนวรารัตน์</t>
-  </si>
-  <si>
-    <t>130 หมู่บ้านขาคีม หมู่ 6, ต.แชะ , อ.ครบุรี, จ.นครราชสีมา</t>
-  </si>
-  <si>
-    <t>095-195-6942</t>
+    <t>P1116967</t>
+  </si>
+  <si>
+    <t>คุณนิพน อินเขาย้อย</t>
+  </si>
+  <si>
+    <t>56/2 หมู่ 2 ซอย 13, ต.หนองปลาไหล , อ.บางละมุง, จ.ชลบุรี</t>
+  </si>
+  <si>
+    <t>096-102-0313</t>
+  </si>
+  <si>
+    <t>P1116969</t>
+  </si>
+  <si>
+    <t>คุณณัฏฐ์พิชา  โชติพันธุ์</t>
+  </si>
+  <si>
+    <t>เลขที่ 137 หมู่ที่  4, ต.ศรีถ้อย , อ.แม่ใจ, จ.พะเยา</t>
+  </si>
+  <si>
+    <t>097-946-5253</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:T1"/>
@@ -449,7 +461,7 @@
     <col min="3" max="3" width="31.278" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34.992" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="34.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="67.127" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="65.984" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="37.562" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="33.706" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="38.848" bestFit="true" customWidth="true" style="0"/>
@@ -542,7 +554,7 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>30250</v>
+        <v>20150</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -561,6 +573,40 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>56130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
